--- a/01_requirments/非機能要求一覧.xlsx
+++ b/01_requirments/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A908B-72F2-4F7B-A5FE-A1DD3F0BEFED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE8A3D-5734-43C3-8809-801CA99CD283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="765" windowWidth="16380" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -411,18 +411,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>継承の利用や役割分担をする</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブンタン</t>
+    <t>コントロールの分割を行う</t>
+    <rPh sb="7" eb="9">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1106,7 +1100,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2292,12 +2286,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2485,15 +2476,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2517,17 +2519,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_requirments/非機能要求一覧.xlsx
+++ b/01_requirments/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE8A3D-5734-43C3-8809-801CA99CD283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037E8B9-8ED8-48BD-BA9F-DBEC32CDEF78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -411,7 +411,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コントロールの分割を行う</t>
+    <t>コントロールの分割を行う
+(Cancel, Login, TicketReservation, MakeAccount, ShowInformation)</t>
     <rPh sb="7" eb="9">
       <t>ブンカツ</t>
     </rPh>
@@ -1099,8 +1100,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1642,7 +1643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -2286,9 +2287,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2476,26 +2480,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2519,9 +2512,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_requirments/非機能要求一覧.xlsx
+++ b/01_requirments/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037E8B9-8ED8-48BD-BA9F-DBEC32CDEF78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22E35C-07DB-4974-B591-1D3A51E800D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="360" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -244,9 +244,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>チケットごとの入力分けを行いやすくする</t>
-  </si>
-  <si>
     <t>N04-02</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -394,10 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ticketクラスから継承して作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>機能追加やテストしやすい構造にする</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -411,12 +404,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コントロールの分割を行う
+    <t>Commandを継承する
+コントロールの分割を行う
 (Cancel, Login, TicketReservation, MakeAccount, ShowInformation)</t>
-    <rPh sb="7" eb="9">
+    <rPh sb="8" eb="10">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>ブンカツ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="23" eb="24">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1100,8 +1097,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1631,44 +1628,40 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
@@ -1676,7 +1669,7 @@
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1684,7 +1677,7 @@
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
@@ -1692,7 +1685,7 @@
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
@@ -2132,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2199,7 +2192,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -2220,34 +2213,34 @@
         <v>22</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="18"/>
@@ -2256,13 +2249,13 @@
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2296,6 +2289,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2479,12 +2478,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2494,6 +2487,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A27BCB91-E184-4976-86E8-397D3F35D9F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2509,20 +2518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>